--- a/Asylum Seeking/European - Asylum Seekers_Harwinder/statistic_id454836_number-of-asylum-applications-in-the-european-union--eu--2009-2018.xlsx
+++ b/Asylum Seeking/European - Asylum Seekers_Harwinder/statistic_id454836_number-of-asylum-applications-in-the-european-union--eu--2009-2018.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harwi\Documents\UNO Classes\Sem 4\Data Visualization\Immigration Proj\European - Asylum Seekers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55833816-0299-4719-8D46-38DF2D639678}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>Statistic as Excel data file</t>
   </si>
@@ -93,12 +109,6 @@
     <t>454836</t>
   </si>
   <si>
-    <t>Number of asylum applications in the European Union (EU) 2009-2018</t>
-  </si>
-  <si>
-    <t>Number of asylum applications in thousands</t>
-  </si>
-  <si>
     <t>2009</t>
   </si>
   <si>
@@ -127,16 +137,297 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Number of asylum applications (in thousands)</t>
+  </si>
+  <si>
+    <t>Number of entry refusals (in thousands)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross domestic product (GDP) growth in EU </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unemployment rate in the European Union</t>
+  </si>
+  <si>
+    <t>Total Population (in thousands)</t>
+  </si>
+  <si>
+    <t>Asylum Seekers Moving to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany </t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Asylum Seekers Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China including Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El Salvador</t>
+  </si>
+  <si>
+    <t>Other non-EU-28</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Faroe Is.</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.##"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,19 +446,48 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,139 +499,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{33831B0B-9517-4E80-B82D-BB5997685D7C}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -634,38 +898,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="70.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="70.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75">
+    <row r="3" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.75">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="12.75">
+    <row r="8" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="12.75">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -673,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="12.75">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -681,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="12.75">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -689,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="12.75">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -697,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="12.75">
+    <row r="14" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -705,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="12.75">
+    <row r="15" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -713,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="12.75">
+    <row r="16" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -721,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="12.75">
+    <row r="17" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
@@ -729,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="12.75">
+    <row r="18" spans="2:3" ht="25" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -737,12 +1003,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="12.75">
+    <row r="20" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="12.75">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
@@ -750,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="12.75">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
@@ -758,7 +1024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="12.75">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -766,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="12.75">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -776,8 +1042,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" location="Data!A1" display="Access data"/>
-    <hyperlink ref="C25" r:id="rId1" display="454836"/>
+    <hyperlink ref="B5" location="Data!A1" display="Access data" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -785,114 +1051,2231 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B3:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.714285714286" customWidth="1"/>
-    <col min="3" max="3" width="37.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="100.7265625" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" ht="12.75">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75">
-      <c r="C5" s="7" t="s">
+      <c r="B2" s="7">
+        <v>220</v>
+      </c>
+      <c r="C2" s="8">
+        <v>113.03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="12.75">
-      <c r="B6" s="2" t="s">
+      <c r="B3" s="7">
+        <v>204</v>
+      </c>
+      <c r="C3" s="8">
+        <v>108.65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="7">
+        <v>254</v>
+      </c>
+      <c r="C4" s="8">
+        <v>118.28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7">
+        <v>276</v>
+      </c>
+      <c r="C5" s="8">
+        <v>117.39</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-0.33</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7">
+        <v>354</v>
+      </c>
       <c r="C6" s="8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="12.75">
-      <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>129.22999999999999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7">
+        <v>615</v>
       </c>
       <c r="C7" s="8">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="12.75">
-      <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>115.86</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1230</v>
       </c>
       <c r="C8" s="8">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="12.75">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>132.18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1100</v>
       </c>
       <c r="C9" s="8">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="12.75">
-      <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>214.04</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7">
+        <v>702</v>
       </c>
       <c r="C10" s="8">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="12.75">
-      <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>183.02</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.66</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
+        <v>590</v>
       </c>
       <c r="C11" s="8">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="12.75">
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="12.75">
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="12.75">
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="12.75">
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8">
-        <v>590</v>
+        <v>190.93</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541D5A94-32E3-4E3B-A899-FAEBE4C52C59}">
+  <dimension ref="A1:C65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="10">
+        <v>198.255</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="10">
+        <v>91.965000000000003</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="10">
+        <v>56.94</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="10">
+        <v>33.034999999999997</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10">
+        <v>126.55</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="10">
+        <v>34.354999999999997</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="10">
+        <v>16.09</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="10">
+        <v>14.035</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="10">
+        <v>22.19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="10">
+        <v>22.454999999999998</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.91</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3.125</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3.47</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1.61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="10">
+        <v>16.614999999999998</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3.35</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="10">
+        <v>161.88499999999999</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="10">
+        <v>110.485</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="10">
+        <v>64.974999999999994</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="10">
+        <v>52.73</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="10">
+        <v>49.164999999999999</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="10">
+        <v>37.29</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="10">
+        <v>20.465</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="10">
+        <v>18.13</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="10">
+        <v>18.074999999999999</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="10">
+        <v>11.39</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="10">
+        <v>7.61</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="10">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="10">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="10">
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="10">
+        <v>1.24</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="10">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="10">
+        <v>13.465</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E343BD3-6B5A-4BFE-A2F1-2DC570DE097E}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="10">
+        <v>102.375</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="10">
+        <v>43.8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="10">
+        <v>47.65</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="10">
+        <v>29.67</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10">
+        <v>17.324999999999999</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="10">
+        <v>39.185000000000002</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="10">
+        <v>14.654999999999999</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13.01</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="10">
+        <v>22.27</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="10">
+        <v>24.375</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="10">
+        <v>17.765000000000001</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="10">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="10">
+        <v>12.705</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.744999999999999</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="10">
+        <v>9.24</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10">
+        <v>8.9550000000000001</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="10">
+        <v>14.025</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="10">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="10">
+        <v>7.82</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4.54</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="10">
+        <v>6.7549999999999999</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="10">
+        <v>10.32</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="10">
+        <v>4.87</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="10">
+        <v>10.25</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="10">
+        <v>5.81</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="10">
+        <v>6.8049999999999997</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3.04</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="10">
+        <v>117.19500000000001</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="10">
+        <v>80.92</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="10">
+        <v>40.99</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="10">
+        <v>39.594999999999999</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="10">
+        <v>24.704999999999998</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="10">
+        <v>23.195</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="10">
+        <v>22.12</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="10">
+        <v>21.965</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="10">
+        <v>21.92</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="10">
+        <v>19.024999999999999</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="10">
+        <v>17.98</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="10">
+        <v>14.945</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="10">
+        <v>13.295</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="10">
+        <v>12.65</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="10">
+        <v>11.65</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="10">
+        <v>11.305</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="10">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="10">
+        <v>9.1850000000000005</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="10">
+        <v>8.49</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="10">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="10">
+        <v>8.1850000000000005</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="10">
+        <v>7.51</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="10">
+        <v>7.1749999999999998</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="10">
+        <v>6.7750000000000004</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="10">
+        <v>6.23</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="10">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="10">
+        <v>5.28</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="10">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="10">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="10">
+        <v>101.785</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB65C70-200B-4111-8315-547E2318C3AA}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>51.5</v>
+      </c>
+      <c r="C6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>42.83</v>
+      </c>
+      <c r="C10">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>54.9</v>
+      </c>
+      <c r="C11">
+        <v>-3.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>39.5</v>
+      </c>
+      <c r="C17">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>49.75</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>44.82</v>
+      </c>
+      <c r="C21">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>47.33</v>
+      </c>
+      <c r="C22">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>45.17</v>
+      </c>
+      <c r="C26">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27">
+        <v>44.25</v>
+      </c>
+      <c r="C27">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>48.67</v>
+      </c>
+      <c r="C28">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>52.5</v>
+      </c>
+      <c r="C30">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>50.83</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35">
+        <v>41.83</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>46.25</v>
+      </c>
+      <c r="C36">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37">
+        <v>43.5</v>
+      </c>
+      <c r="C37">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>49.75</v>
+      </c>
+      <c r="C39">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41">
+        <v>42.5</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>35.92</v>
+      </c>
+      <c r="C42">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43">
+        <v>47.17</v>
+      </c>
+      <c r="C43">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44">
+        <v>49.58</v>
+      </c>
+      <c r="C44">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45">
+        <v>43.93</v>
+      </c>
+      <c r="C45">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="C46">
+        <v>-5.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47">
+        <v>43.73</v>
+      </c>
+      <c r="C47">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <v>41.9</v>
+      </c>
+      <c r="C48">
+        <v>12.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>